--- a/data/trans_orig/P6605-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>76389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61543</v>
+        <v>61220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92125</v>
+        <v>93450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1988510507287871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1602051056795886</v>
+        <v>0.1593654569292596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2398154691774066</v>
+        <v>0.2432633513167839</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>37032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27310</v>
+        <v>26550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48036</v>
+        <v>47853</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2378310137440754</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1753891624895652</v>
+        <v>0.1705100746231392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3084983632501695</v>
+        <v>0.3073233937212344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -786,19 +786,19 @@
         <v>113421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96105</v>
+        <v>94617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133499</v>
+        <v>133130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2100938914224227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1780185555866062</v>
+        <v>0.1752621609349569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2472849785153796</v>
+        <v>0.2466015766318915</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>106517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89336</v>
+        <v>88932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125956</v>
+        <v>125125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2772793178786017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2325561982663526</v>
+        <v>0.2315029696587572</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3278831283488574</v>
+        <v>0.3257200487015725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -836,19 +836,19 @@
         <v>55091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42861</v>
+        <v>43780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68550</v>
+        <v>68708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3538099406743541</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.275266096983263</v>
+        <v>0.2811661917157132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4402460415241389</v>
+        <v>0.4412563486720271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -857,19 +857,19 @@
         <v>161608</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141089</v>
+        <v>140970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185494</v>
+        <v>185640</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2993527508354233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2613449078937445</v>
+        <v>0.2611229118859101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3435976518483766</v>
+        <v>0.3438671640169795</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>121903</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>104215</v>
+        <v>104946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139345</v>
+        <v>141703</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3173308578199389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2712869686445846</v>
+        <v>0.2731913471379013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3627368709624464</v>
+        <v>0.3688737952607838</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -907,19 +907,19 @@
         <v>40882</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30632</v>
+        <v>29981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53007</v>
+        <v>52211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2625512839010753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1967287881332903</v>
+        <v>0.1925418636768811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3404259924364694</v>
+        <v>0.3353102343512965</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>158</v>
@@ -928,19 +928,19 @@
         <v>162784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>141353</v>
+        <v>141455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>181662</v>
+        <v>184778</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3015309961681086</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2618336653565698</v>
+        <v>0.2620222117535969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3364981510328405</v>
+        <v>0.3422702428033953</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>79342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64103</v>
+        <v>64823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96093</v>
+        <v>96212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2065387735726723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1668701168218212</v>
+        <v>0.1687433893641325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2501437096781619</v>
+        <v>0.2504551207163219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -978,19 +978,19 @@
         <v>22704</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15108</v>
+        <v>15197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32349</v>
+        <v>32248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1458077616804953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09702585966177683</v>
+        <v>0.09759634960882423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2077551775072479</v>
+        <v>0.2071070846750013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -999,19 +999,19 @@
         <v>102045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83963</v>
+        <v>85604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119401</v>
+        <v>122064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1890223615740453</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1555274872053423</v>
+        <v>0.158567702319496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2211713473148526</v>
+        <v>0.2261041886571347</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>125549</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>106007</v>
+        <v>106444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147839</v>
+        <v>147248</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2254813424623935</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1903843444833468</v>
+        <v>0.1911680304750228</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2655122567473002</v>
+        <v>0.2644515032582371</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -1124,19 +1124,19 @@
         <v>72940</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58225</v>
+        <v>58691</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>86928</v>
+        <v>87958</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2734086237693081</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2182515010262323</v>
+        <v>0.2199979261113532</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3258434902984246</v>
+        <v>0.3297042035578036</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>177</v>
@@ -1145,19 +1145,19 @@
         <v>198489</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>172610</v>
+        <v>173335</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>225804</v>
+        <v>224910</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2410061526798117</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2095842757129795</v>
+        <v>0.2104641599439126</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2741722744681391</v>
+        <v>0.2730862364122588</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>135444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114001</v>
+        <v>115135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158161</v>
+        <v>157694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2432523487590261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2047413863403477</v>
+        <v>0.2067782824467373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2840509693690141</v>
+        <v>0.2832115957302904</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1195,19 +1195,19 @@
         <v>64711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51847</v>
+        <v>52278</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80730</v>
+        <v>80429</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.242564918094528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1943432067960877</v>
+        <v>0.1959605132440347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3026103924301914</v>
+        <v>0.3014834689374065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -1216,19 +1216,19 @@
         <v>200156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175801</v>
+        <v>175871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>226199</v>
+        <v>229091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2430296732741467</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2134582069353901</v>
+        <v>0.2135434925371036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2746517391146449</v>
+        <v>0.2781636349425806</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>144124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123344</v>
+        <v>124834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164382</v>
+        <v>165966</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2588400069322048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.22152044569674</v>
+        <v>0.2241969199623492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2952236998848042</v>
+        <v>0.2980682011354669</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1266,19 +1266,19 @@
         <v>70728</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58579</v>
+        <v>56492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88248</v>
+        <v>85645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2651166793558352</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2195800703349055</v>
+        <v>0.2117544528584844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3307899896640537</v>
+        <v>0.3210317666424556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -1287,19 +1287,19 @@
         <v>214851</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190357</v>
+        <v>191515</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242967</v>
+        <v>241647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2608731735445514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2311320605631939</v>
+        <v>0.2325380077798687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2950113348525591</v>
+        <v>0.2934086686507433</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>151689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>128780</v>
+        <v>130173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174849</v>
+        <v>172576</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2724263018463756</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2312833949561194</v>
+        <v>0.2337843811805155</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3140215608736124</v>
+        <v>0.3099384572459927</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1337,19 +1337,19 @@
         <v>58401</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44459</v>
+        <v>46505</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72294</v>
+        <v>73333</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2189097787803287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1666506060400569</v>
+        <v>0.174319696273421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2709866237605747</v>
+        <v>0.2748841283668961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>195</v>
@@ -1358,19 +1358,19 @@
         <v>210089</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>186217</v>
+        <v>183227</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>236244</v>
+        <v>235666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2550910005014902</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2261048199123832</v>
+        <v>0.2224743698017391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2868484945749719</v>
+        <v>0.2861463677906158</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>150149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131487</v>
+        <v>129836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168871</v>
+        <v>170851</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3708650551524615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3247711292557361</v>
+        <v>0.3206927939699758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4171072179552964</v>
+        <v>0.4219972410717032</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1483,19 +1483,19 @@
         <v>93050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78351</v>
+        <v>79787</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106045</v>
+        <v>108196</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4388860327419518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3695572508751201</v>
+        <v>0.3763275474634892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5001810613541726</v>
+        <v>0.5103228870132689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>234</v>
@@ -1504,19 +1504,19 @@
         <v>243199</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>220173</v>
+        <v>216369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270185</v>
+        <v>265841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.394243174575611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3569159135077857</v>
+        <v>0.3507492324895519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4379893178247509</v>
+        <v>0.43094713733356</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>75816</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60465</v>
+        <v>59870</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>93233</v>
+        <v>92477</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1872641270569153</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1493482231754961</v>
+        <v>0.147877777758873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2302821766838697</v>
+        <v>0.2284171138001756</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -1554,19 +1554,19 @@
         <v>38696</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29079</v>
+        <v>29325</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50889</v>
+        <v>50540</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1825175971454936</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1371580275578967</v>
+        <v>0.1383154445624802</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2400288351797083</v>
+        <v>0.2383785165410655</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>112</v>
@@ -1575,19 +1575,19 @@
         <v>114512</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>96097</v>
+        <v>97676</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>135034</v>
+        <v>135036</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1856327929149033</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1557799491314054</v>
+        <v>0.1583398817877504</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2188999484052943</v>
+        <v>0.2189033973994726</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>82529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67072</v>
+        <v>65930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100393</v>
+        <v>101378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2038459277037872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.165665990876358</v>
+        <v>0.1628457656459695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2479682826922752</v>
+        <v>0.2504008203893913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1625,19 +1625,19 @@
         <v>46808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34930</v>
+        <v>35011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58791</v>
+        <v>59483</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.220776491611894</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1647528167662165</v>
+        <v>0.1651374369434386</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2772957851796932</v>
+        <v>0.2805613836950193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -1646,19 +1646,19 @@
         <v>129337</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108800</v>
+        <v>108815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151226</v>
+        <v>151389</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2096647906335981</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1763729058439086</v>
+        <v>0.1763964456089714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.24514801516438</v>
+        <v>0.2454122634130282</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>96367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79780</v>
+        <v>79436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117522</v>
+        <v>116663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.238024890086836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1970538053815788</v>
+        <v>0.1962061611058518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2902762580247714</v>
+        <v>0.2881543193805592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1696,19 +1696,19 @@
         <v>33460</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23527</v>
+        <v>24134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45935</v>
+        <v>46593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1578198785006606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1109680713581159</v>
+        <v>0.1138304164806945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2166587376066003</v>
+        <v>0.2197620356561986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -1717,19 +1717,19 @@
         <v>129827</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109947</v>
+        <v>111310</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152364</v>
+        <v>154487</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2104592418758876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1782313437697146</v>
+        <v>0.1804408245151022</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2469921728538572</v>
+        <v>0.2504346807257006</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>164113</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143704</v>
+        <v>146221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186207</v>
+        <v>186695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2978334906731915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2607945705829726</v>
+        <v>0.26536268108968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3379297315037239</v>
+        <v>0.3388138194438461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -1842,19 +1842,19 @@
         <v>110948</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93202</v>
+        <v>93590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>129911</v>
+        <v>128993</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2880151055327529</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2419486459526834</v>
+        <v>0.2429548265949569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3372408980734237</v>
+        <v>0.3348586946898151</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -1863,19 +1863,19 @@
         <v>275061</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>249013</v>
+        <v>247380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>305117</v>
+        <v>302655</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2937937131167285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2659717995274893</v>
+        <v>0.2642275586578732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3258960030128724</v>
+        <v>0.3232660130233329</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>119372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100770</v>
+        <v>101435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140416</v>
+        <v>140256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2166361365057388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1828785198398095</v>
+        <v>0.1840846203349944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2548273799125386</v>
+        <v>0.2545378242129644</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -1913,19 +1913,19 @@
         <v>87445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71336</v>
+        <v>71489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106009</v>
+        <v>105613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.227003427470921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1851852040621235</v>
+        <v>0.1855818108089031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2751925172826959</v>
+        <v>0.2741656449963466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1934,19 +1934,19 @@
         <v>206817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180896</v>
+        <v>180559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>233721</v>
+        <v>234016</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2209017615309753</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1932150343415329</v>
+        <v>0.1928551795000362</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2496379161030506</v>
+        <v>0.2499528529438606</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>152629</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133700</v>
+        <v>132341</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>174372</v>
+        <v>173265</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2769906640816085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2426395640687756</v>
+        <v>0.2401727515669008</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3164514120703691</v>
+        <v>0.3144425681656707</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -1984,19 +1984,19 @@
         <v>113510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>94832</v>
+        <v>94958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130942</v>
+        <v>133978</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2946671234846564</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2461784048461365</v>
+        <v>0.246506386102925</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3399182921257015</v>
+        <v>0.3478000245256547</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>259</v>
@@ -2005,19 +2005,19 @@
         <v>266139</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>238141</v>
+        <v>240674</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>293611</v>
+        <v>296924</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2842636486867909</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2543592162592707</v>
+        <v>0.2570639226539693</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3136065708672301</v>
+        <v>0.3171451927114771</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>114910</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96176</v>
+        <v>97566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132687</v>
+        <v>134036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2085397087394612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1745399424767954</v>
+        <v>0.177062638781194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2408013626986835</v>
+        <v>0.2432480723912831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2055,19 +2055,19 @@
         <v>73312</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60019</v>
+        <v>58137</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90267</v>
+        <v>89724</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1903143435116696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1558061528475374</v>
+        <v>0.1509198102993266</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2343289320949521</v>
+        <v>0.23291918654104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>190</v>
@@ -2076,19 +2076,19 @@
         <v>188223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>167143</v>
+        <v>164921</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214599</v>
+        <v>213474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2010408766655053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1785262491187185</v>
+        <v>0.1761522286311935</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2292133883109827</v>
+        <v>0.2280117996510916</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>516201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>476689</v>
+        <v>478400</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>556814</v>
+        <v>554720</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2721368589611628</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2513066197098559</v>
+        <v>0.2522087307947321</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2935476921354822</v>
+        <v>0.2924441785536883</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>304</v>
@@ -2201,19 +2201,19 @@
         <v>313970</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>286929</v>
+        <v>286529</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>344544</v>
+        <v>344857</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3078989360084676</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2813803680608751</v>
+        <v>0.280988560383108</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3378809589658061</v>
+        <v>0.3381885927351254</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>799</v>
@@ -2222,19 +2222,19 @@
         <v>830171</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>780667</v>
+        <v>782258</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>882151</v>
+        <v>878573</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2846403789320866</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2676667901903064</v>
+        <v>0.2682123005046379</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3024627727262275</v>
+        <v>0.301235897784019</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>437149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>398765</v>
+        <v>401091</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>475190</v>
+        <v>475283</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2304614871592314</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2102256023636193</v>
+        <v>0.2114521961355652</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2505164095612292</v>
+        <v>0.2505652197477518</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>233</v>
@@ -2272,19 +2272,19 @@
         <v>245945</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>219925</v>
+        <v>221275</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>276359</v>
+        <v>275806</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2411885438494533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2156724490962074</v>
+        <v>0.2169963274329078</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2710153170926271</v>
+        <v>0.2704728061930651</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>650</v>
@@ -2293,19 +2293,19 @@
         <v>683094</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>637336</v>
+        <v>640304</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>734867</v>
+        <v>733559</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2342119954806022</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2185229819959207</v>
+        <v>0.2195406748424097</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2519635262702499</v>
+        <v>0.2515151705956851</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>501184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>462759</v>
+        <v>463380</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>538769</v>
+        <v>540136</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2642203542268952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2439631215615548</v>
+        <v>0.2442902082599444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2840348861045462</v>
+        <v>0.2847554610048452</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>257</v>
@@ -2343,19 +2343,19 @@
         <v>271928</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>243677</v>
+        <v>243556</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>301688</v>
+        <v>301285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2666691796683144</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2389645930258059</v>
+        <v>0.2388458782345273</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.295853767190414</v>
+        <v>0.2954591979823801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>741</v>
@@ -2364,19 +2364,19 @@
         <v>773112</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>726054</v>
+        <v>725603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>818050</v>
+        <v>819411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2650765387760082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2489416891428295</v>
+        <v>0.2487871023485654</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2804843473142025</v>
+        <v>0.2809512562239426</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>442308</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>404597</v>
+        <v>401639</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>481004</v>
+        <v>477679</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2331812996527106</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.213300293525769</v>
+        <v>0.2117410543333744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2535812423782968</v>
+        <v>0.2518285732743901</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>181</v>
@@ -2414,19 +2414,19 @@
         <v>187876</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>164165</v>
+        <v>164665</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>215478</v>
+        <v>214260</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1842433404737647</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1609902397730698</v>
+        <v>0.161481026258557</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2113110170020887</v>
+        <v>0.2101167918812747</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>601</v>
@@ -2435,19 +2435,19 @@
         <v>630185</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>587416</v>
+        <v>587741</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>679042</v>
+        <v>676284</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.216071086811303</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2014070289460358</v>
+        <v>0.2015185638076189</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2328227155414689</v>
+        <v>0.2318772875245868</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>55844</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42778</v>
+        <v>41541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71022</v>
+        <v>71769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2076487955816101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1590634363004609</v>
+        <v>0.1544648974437587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2640842790844531</v>
+        <v>0.2668603248037715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2800,19 +2800,19 @@
         <v>36107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26586</v>
+        <v>26164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48221</v>
+        <v>48388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2238833365256945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1648475050045982</v>
+        <v>0.162233623333604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.299001414535188</v>
+        <v>0.3000325660699644</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -2821,19 +2821,19 @@
         <v>91951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75379</v>
+        <v>76230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111332</v>
+        <v>111729</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2137346959718359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1752124994797784</v>
+        <v>0.1771926119168757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2587836511484423</v>
+        <v>0.2597079825075493</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>61508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48449</v>
+        <v>48428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77129</v>
+        <v>77429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2287078211294904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1801510962581908</v>
+        <v>0.1800723308607431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2867936327135417</v>
+        <v>0.2879088961965238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -2871,19 +2871,19 @@
         <v>50629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39044</v>
+        <v>40114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63721</v>
+        <v>64061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3139273144729746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2420960821443253</v>
+        <v>0.2487320022768229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3951084197943768</v>
+        <v>0.3972170272940225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -2892,19 +2892,19 @@
         <v>112137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94125</v>
+        <v>92732</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131059</v>
+        <v>131551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2606543571960332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2187874545457916</v>
+        <v>0.2155496926714613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3046374575801569</v>
+        <v>0.3057824783336245</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>88290</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72797</v>
+        <v>74083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103475</v>
+        <v>106303</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3282935910073059</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2706854643998537</v>
+        <v>0.2754673753823524</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3847567524877043</v>
+        <v>0.3952701365324969</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -2942,19 +2942,19 @@
         <v>46883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35636</v>
+        <v>35320</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58605</v>
+        <v>59020</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2907039410822687</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2209620448599466</v>
+        <v>0.2190063425897672</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3633847982319528</v>
+        <v>0.3659561778240787</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -2963,19 +2963,19 @@
         <v>135174</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>116799</v>
+        <v>117144</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>156098</v>
+        <v>156096</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3142022245846172</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2714927949662508</v>
+        <v>0.2722941634505248</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3628401568422178</v>
+        <v>0.3628352261344153</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>63294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51180</v>
+        <v>51011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80605</v>
+        <v>78972</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2353497922815936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1903050784307625</v>
+        <v>0.1896748602254514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2997183887712642</v>
+        <v>0.2936451264264267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3013,19 +3013,19 @@
         <v>27656</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19188</v>
+        <v>19024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38782</v>
+        <v>39493</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1714854079190622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1189748018311795</v>
+        <v>0.1179623040945682</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2404711458712508</v>
+        <v>0.2448767692513553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -3034,19 +3034,19 @@
         <v>90951</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75239</v>
+        <v>73697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109759</v>
+        <v>107835</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2114087222475136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1748874145551996</v>
+        <v>0.1713043725610498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2551274945254613</v>
+        <v>0.2506545247712791</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>88343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72887</v>
+        <v>72788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106736</v>
+        <v>107408</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2161530251109831</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1783349405808829</v>
+        <v>0.178092764724692</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2611539999824662</v>
+        <v>0.2627997748445475</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -3159,19 +3159,19 @@
         <v>70581</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56458</v>
+        <v>54683</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>86655</v>
+        <v>85099</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2608414349414714</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2086487263130331</v>
+        <v>0.2020910700855516</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.32024682791381</v>
+        <v>0.3144965766593429</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>141</v>
@@ -3180,19 +3180,19 @@
         <v>158924</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>136891</v>
+        <v>136589</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>183301</v>
+        <v>182313</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2339540414053554</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2015183801411781</v>
+        <v>0.2010737239615539</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2698403249459208</v>
+        <v>0.2683857789976581</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>101666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84486</v>
+        <v>84377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120249</v>
+        <v>120419</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2487491252136098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2067147148940552</v>
+        <v>0.2064483684356598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2942163718619064</v>
+        <v>0.2946330146181677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -3230,19 +3230,19 @@
         <v>74084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58903</v>
+        <v>59942</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88487</v>
+        <v>90467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2737895410674244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2176836977152151</v>
+        <v>0.2215261113118002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3270173065041402</v>
+        <v>0.3343354904419287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -3251,19 +3251,19 @@
         <v>175750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153482</v>
+        <v>152316</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200145</v>
+        <v>203768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.258723632078419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2259420963199254</v>
+        <v>0.2242256605249349</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.294635330085681</v>
+        <v>0.2999695952628595</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>122662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104545</v>
+        <v>102260</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142870</v>
+        <v>142359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3001203402883019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2557941930477993</v>
+        <v>0.250202696888278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3495658809568917</v>
+        <v>0.3483152083651023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -3301,19 +3301,19 @@
         <v>71522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57543</v>
+        <v>56958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87851</v>
+        <v>87382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2643193061301113</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.212658512644808</v>
+        <v>0.2104988878688543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3246682762992016</v>
+        <v>0.322932689735871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>180</v>
@@ -3322,19 +3322,19 @@
         <v>194183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>171677</v>
+        <v>169379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>219281</v>
+        <v>219053</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2858594884293365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2527272395400571</v>
+        <v>0.2493447356928999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3228064734722387</v>
+        <v>0.3224713441864018</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>96037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79306</v>
+        <v>81051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115020</v>
+        <v>117471</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2349775093871052</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1940396070402591</v>
+        <v>0.1983107513440922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.281423528672223</v>
+        <v>0.2874197183648384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -3372,19 +3372,19 @@
         <v>54402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40736</v>
+        <v>41644</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69197</v>
+        <v>68054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2010497178609929</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1505462562430772</v>
+        <v>0.1539029685561338</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2557289376691388</v>
+        <v>0.2515052453669319</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -3393,19 +3393,19 @@
         <v>150439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129253</v>
+        <v>128613</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174350</v>
+        <v>174129</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2214628380868892</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1902748522139853</v>
+        <v>0.1893320711701957</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2566626576474997</v>
+        <v>0.2563367660068019</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>73699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58931</v>
+        <v>58332</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90521</v>
+        <v>90949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2314933957146332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.185107281867283</v>
+        <v>0.1832257198388189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2843318623697119</v>
+        <v>0.2856785103297941</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -3518,19 +3518,19 @@
         <v>56989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44191</v>
+        <v>42572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72606</v>
+        <v>70147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2658777602022604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2061700803265255</v>
+        <v>0.1986149669065657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3387384290053794</v>
+        <v>0.3272671895562434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -3539,19 +3539,19 @@
         <v>130688</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112334</v>
+        <v>111040</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152131</v>
+        <v>153841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2453284512942098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.21087425304285</v>
+        <v>0.2084463122912555</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2855812084714355</v>
+        <v>0.2887921091365344</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>79493</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>64473</v>
+        <v>63796</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>97251</v>
+        <v>96691</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2496931238175171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2025131144953272</v>
+        <v>0.2003862502467204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3054707497337991</v>
+        <v>0.3037145581395125</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -3589,19 +3589,19 @@
         <v>48356</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35305</v>
+        <v>36918</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61643</v>
+        <v>63044</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2256015304039211</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1647122893376426</v>
+        <v>0.1722378905295551</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2875936617631239</v>
+        <v>0.2941280043465451</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>116</v>
@@ -3610,19 +3610,19 @@
         <v>127849</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>108237</v>
+        <v>106145</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>149666</v>
+        <v>149695</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2399995163059518</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2031844977780975</v>
+        <v>0.1992565339661396</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2809555431314507</v>
+        <v>0.2810096054820381</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>102692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85235</v>
+        <v>86291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121836</v>
+        <v>122323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3225615181786862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2677286992923371</v>
+        <v>0.2710468622167534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3826945099424715</v>
+        <v>0.3842259449593184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -3660,19 +3660,19 @@
         <v>53274</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41015</v>
+        <v>40117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67838</v>
+        <v>67414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2485474840633222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1913513152666171</v>
+        <v>0.1871620829436721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.316492324453327</v>
+        <v>0.3145172665174926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -3681,19 +3681,19 @@
         <v>155966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>133699</v>
+        <v>133012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177207</v>
+        <v>179146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2927808812260037</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2509803821108411</v>
+        <v>0.2496921391938131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3326546158970454</v>
+        <v>0.3362958115631888</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>62479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48022</v>
+        <v>47911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77417</v>
+        <v>77151</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1962519622891635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1508401773589751</v>
+        <v>0.1504930638127476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2431707305029951</v>
+        <v>0.242336152587764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3731,19 +3731,19 @@
         <v>55723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42743</v>
+        <v>43470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70168</v>
+        <v>70370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2599732253304963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1994166961293636</v>
+        <v>0.2028044202165498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3273658928425612</v>
+        <v>0.3283063307395146</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>108</v>
@@ -3752,19 +3752,19 @@
         <v>118203</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99433</v>
+        <v>99321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137884</v>
+        <v>140852</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2218911511738347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1866570073094737</v>
+        <v>0.1864468612283408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2588378488211666</v>
+        <v>0.2644095769992896</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>109045</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>91687</v>
+        <v>91999</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129321</v>
+        <v>129193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2628359706840656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.220996204070409</v>
+        <v>0.221748581213427</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3117072212283822</v>
+        <v>0.3113990760057891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -3877,19 +3877,19 @@
         <v>86834</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72748</v>
+        <v>71634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104718</v>
+        <v>103916</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2907415954235204</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2435783392477904</v>
+        <v>0.2398487597626461</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3506207073184689</v>
+        <v>0.3479359236169724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -3898,19 +3898,19 @@
         <v>195879</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173166</v>
+        <v>171455</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220580</v>
+        <v>221000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.274516291454589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2426849450414186</v>
+        <v>0.2402859363776233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3091326792362954</v>
+        <v>0.3097218446526612</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>106624</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89108</v>
+        <v>88350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127387</v>
+        <v>125282</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2569992085768363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.214780658667023</v>
+        <v>0.2129521649307391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3070454166667253</v>
+        <v>0.3019718119070159</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -3948,19 +3948,19 @@
         <v>79210</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63507</v>
+        <v>64420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94186</v>
+        <v>94508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2652139565503109</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2126358976585505</v>
+        <v>0.2156918026364483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3153554499457976</v>
+        <v>0.3164359559054412</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>181</v>
@@ -3969,19 +3969,19 @@
         <v>185834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161156</v>
+        <v>162655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208320</v>
+        <v>208976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.260437615431191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2258534813431504</v>
+        <v>0.2279542550243284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2919510285198428</v>
+        <v>0.2928709627071332</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>107835</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>89748</v>
+        <v>91843</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>126757</v>
+        <v>127954</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2599179797068522</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2163223362928862</v>
+        <v>0.2213717428326234</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3055265877650022</v>
+        <v>0.3084126855704353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -4019,19 +4019,19 @@
         <v>61073</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48229</v>
+        <v>48825</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78010</v>
+        <v>78028</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.204486207936052</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.161482275687539</v>
+        <v>0.163478027893671</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2611948448625241</v>
+        <v>0.2612554550944933</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>163</v>
@@ -4040,19 +4040,19 @@
         <v>168907</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>145740</v>
+        <v>143616</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>192816</v>
+        <v>192720</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2367161742928358</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2042481589048015</v>
+        <v>0.2012718676108884</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2702234109505625</v>
+        <v>0.2700880020154703</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>91376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75012</v>
+        <v>75068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>111372</v>
+        <v>111084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.220246841032246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.180803076373884</v>
+        <v>0.1809401490369847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2684445889797477</v>
+        <v>0.2677492652843476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4090,19 +4090,19 @@
         <v>71548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58103</v>
+        <v>58447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87321</v>
+        <v>87609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2395582400901167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1945411441685989</v>
+        <v>0.1956942273133406</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2923710740500332</v>
+        <v>0.2933358460946074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>155</v>
@@ -4111,19 +4111,19 @@
         <v>162923</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140325</v>
+        <v>141003</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>186664</v>
+        <v>187545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2283299188213842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1966587420337177</v>
+        <v>0.197609622164554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2616005575435358</v>
+        <v>0.262835646891865</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>326932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>296285</v>
+        <v>296541</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>364448</v>
+        <v>364552</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2317208895050538</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2099988186108231</v>
+        <v>0.210180197913573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2583115983535314</v>
+        <v>0.2583850913530131</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -4236,19 +4236,19 @@
         <v>250510</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>223128</v>
+        <v>225525</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>279447</v>
+        <v>276683</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.265126883581478</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2361471390547893</v>
+        <v>0.2386839755160745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2957521994635436</v>
+        <v>0.2928264419652036</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>527</v>
@@ -4257,19 +4257,19 @@
         <v>577442</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>533181</v>
+        <v>535389</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>624374</v>
+        <v>620178</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2451196871386804</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2263310771550078</v>
+        <v>0.22726814181679</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2650417924206861</v>
+        <v>0.2632604782501257</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>349290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>316838</v>
+        <v>315583</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>383049</v>
+        <v>382725</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2475679355296434</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2245667976802254</v>
+        <v>0.2236772835949832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2714952964118934</v>
+        <v>0.2712652678347551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -4307,19 +4307,19 @@
         <v>252279</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227381</v>
+        <v>226387</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282470</v>
+        <v>280416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2669984600172905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2406484164656107</v>
+        <v>0.2395958927532191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2989509884786509</v>
+        <v>0.2967770782242223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>567</v>
@@ -4328,19 +4328,19 @@
         <v>601569</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>558153</v>
+        <v>559324</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>645424</v>
+        <v>642404</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2553613173080633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2369313046773533</v>
+        <v>0.2374287486166478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2739773067954584</v>
+        <v>0.2726953896990246</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>421478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>387060</v>
+        <v>386436</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>457708</v>
+        <v>454484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2987326584701913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2743383264532896</v>
+        <v>0.2738955543941956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3244118493623331</v>
+        <v>0.3221264233544787</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>212</v>
@@ -4378,19 +4378,19 @@
         <v>232752</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>203667</v>
+        <v>204045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>260244</v>
+        <v>258387</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2463322715334601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2155502782199509</v>
+        <v>0.215950143116786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2754282178058967</v>
+        <v>0.2734627999700138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>612</v>
@@ -4399,19 +4399,19 @@
         <v>654230</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>613030</v>
+        <v>609496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>704600</v>
+        <v>696123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.277715406928963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2602262344054299</v>
+        <v>0.258726055739776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2990972409795797</v>
+        <v>0.2954986793060062</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>313187</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>281176</v>
+        <v>281367</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>345084</v>
+        <v>346638</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2219785164951115</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1992903341390278</v>
+        <v>0.1994259141165823</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2445862185566406</v>
+        <v>0.2456882611379761</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>197</v>
@@ -4449,19 +4449,19 @@
         <v>209329</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>182680</v>
+        <v>183531</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>234634</v>
+        <v>234936</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2215423848677714</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.193338514829299</v>
+        <v>0.1942391059306514</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2483242825641559</v>
+        <v>0.2486438857526442</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>490</v>
@@ -4470,19 +4470,19 @@
         <v>522515</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>477947</v>
+        <v>479997</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>558653</v>
+        <v>566410</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2218035886242933</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2028848559041816</v>
+        <v>0.2037547221822619</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.237143661276273</v>
+        <v>0.2404366384784795</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>65931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51716</v>
+        <v>51027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80608</v>
+        <v>79972</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2757417609911936</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2162890068855624</v>
+        <v>0.2134078798552121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3371252325164936</v>
+        <v>0.334463991116061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -4835,19 +4835,19 @@
         <v>54941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44653</v>
+        <v>43545</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66808</v>
+        <v>67154</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3345331589798282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2718921920504144</v>
+        <v>0.2651459703494002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4067898211526683</v>
+        <v>0.4088941353687182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -4856,19 +4856,19 @@
         <v>120872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102457</v>
+        <v>103925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>138818</v>
+        <v>139488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2996806824613437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2540235522740663</v>
+        <v>0.2576618337147544</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3441746585475393</v>
+        <v>0.3458349173743915</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>66490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53962</v>
+        <v>53695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81844</v>
+        <v>80048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2780789385111063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2256832841809415</v>
+        <v>0.2245680903100516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3422940044485348</v>
+        <v>0.3347842023548656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -4906,19 +4906,19 @@
         <v>38800</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28144</v>
+        <v>28669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49792</v>
+        <v>50703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2362530730816134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1713664178717221</v>
+        <v>0.1745633296858997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3031780540629572</v>
+        <v>0.3087297104850725</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -4927,19 +4927,19 @@
         <v>105290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87110</v>
+        <v>88960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122479</v>
+        <v>122207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2610481118563079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2159735740483022</v>
+        <v>0.2205599151648849</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3036645559679271</v>
+        <v>0.3029889064876324</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>66555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53382</v>
+        <v>54365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80895</v>
+        <v>81319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2783535448671054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2232594586309201</v>
+        <v>0.2273690857478438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3383237509400162</v>
+        <v>0.3400981306314257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -4977,19 +4977,19 @@
         <v>35503</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25623</v>
+        <v>25331</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46677</v>
+        <v>45977</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2161735251760023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1560200267032914</v>
+        <v>0.1542413966036642</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2842163494175072</v>
+        <v>0.2799526901087417</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>103</v>
@@ -4998,19 +4998,19 @@
         <v>102058</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84544</v>
+        <v>85514</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119104</v>
+        <v>119021</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.253034830576871</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2096104601284295</v>
+        <v>0.2120159979609293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2952957643654709</v>
+        <v>0.2950916107276273</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>40128</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28822</v>
+        <v>28784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53509</v>
+        <v>52643</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1678257556305947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.120541789900348</v>
+        <v>0.1203847848148036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2237897461165306</v>
+        <v>0.2201688584358092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -5048,19 +5048,19 @@
         <v>34988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25425</v>
+        <v>25435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47505</v>
+        <v>45836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2130402427625561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1548132825464739</v>
+        <v>0.1548730609086524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2892558584539675</v>
+        <v>0.2790899684358112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -5069,19 +5069,19 @@
         <v>75116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60331</v>
+        <v>60023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92392</v>
+        <v>92292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1862363751054774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1495791733430754</v>
+        <v>0.1488148392862999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2290677950663302</v>
+        <v>0.2288211102853751</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>131322</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112067</v>
+        <v>111012</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>152750</v>
+        <v>150719</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3206008195655284</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2735928574255148</v>
+        <v>0.2710173546483837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3729118135543211</v>
+        <v>0.367953450758029</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>90</v>
@@ -5194,19 +5194,19 @@
         <v>91046</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>75987</v>
+        <v>76973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106065</v>
+        <v>106792</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3350118003717553</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2796019896401273</v>
+        <v>0.2832290666906556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3902733842599538</v>
+        <v>0.3929502451448646</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>206</v>
@@ -5215,19 +5215,19 @@
         <v>222368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>197857</v>
+        <v>196542</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>248958</v>
+        <v>247264</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3263486478094585</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2903760112141294</v>
+        <v>0.2884450180539503</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3653721294761219</v>
+        <v>0.3628860265798767</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>97718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80038</v>
+        <v>81984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117692</v>
+        <v>116211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2385625376308909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1953999932687152</v>
+        <v>0.2001487317888131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2873241208846711</v>
+        <v>0.2837096950743671</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -5265,19 +5265,19 @@
         <v>73636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60871</v>
+        <v>59423</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89551</v>
+        <v>88640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2709500010997311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2239799954305325</v>
+        <v>0.2186527454803229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3295092928559673</v>
+        <v>0.3261594545603454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -5286,19 +5286,19 @@
         <v>171354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150225</v>
+        <v>149990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194085</v>
+        <v>195685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2514802966494177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2204701722029715</v>
+        <v>0.2201257185458038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2848391056277305</v>
+        <v>0.2871880070794242</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>110940</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92850</v>
+        <v>93357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131575</v>
+        <v>131152</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2708398704211111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2266765110182234</v>
+        <v>0.2279139278886834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3212181888571911</v>
+        <v>0.320184802632863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -5336,19 +5336,19 @@
         <v>61056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48608</v>
+        <v>48425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75918</v>
+        <v>76515</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2246608316791693</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.178858532938191</v>
+        <v>0.1781853388710704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2793466726093094</v>
+        <v>0.2815445808193356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>160</v>
@@ -5357,19 +5357,19 @@
         <v>171996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147429</v>
+        <v>149324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>196823</v>
+        <v>195652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2524213334230057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2163678797803086</v>
+        <v>0.2191477941650197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2888575842020059</v>
+        <v>0.2871401563992341</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>69633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55734</v>
+        <v>55026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85643</v>
+        <v>86988</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1699967723824695</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1360643688302005</v>
+        <v>0.1343366332811685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2090817622813841</v>
+        <v>0.2123665151447536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -5407,19 +5407,19 @@
         <v>46032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33129</v>
+        <v>34466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60379</v>
+        <v>58539</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1693773668493444</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1219004166030519</v>
+        <v>0.126822133532684</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2221691774854426</v>
+        <v>0.2153997687682384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -5428,19 +5428,19 @@
         <v>115665</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95908</v>
+        <v>95744</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135450</v>
+        <v>137952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.169749722118118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1407544533461216</v>
+        <v>0.140514351438081</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1987864542859778</v>
+        <v>0.2024586430207768</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>68022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54523</v>
+        <v>52158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84249</v>
+        <v>84875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1880865589180231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1507590702222496</v>
+        <v>0.1442193467776572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2329545803253528</v>
+        <v>0.2346845607157095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -5553,19 +5553,19 @@
         <v>63734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49909</v>
+        <v>51703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78306</v>
+        <v>78016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2364698879731279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1851748007288381</v>
+        <v>0.1918302571583861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.29053333413461</v>
+        <v>0.2894596572711711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>125</v>
@@ -5574,19 +5574,19 @@
         <v>131757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113097</v>
+        <v>113317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154774</v>
+        <v>153878</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2087470861722426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.179184550419803</v>
+        <v>0.1795322126484663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2452148471503944</v>
+        <v>0.2437952819102185</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>101665</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83922</v>
+        <v>84687</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119278</v>
+        <v>120650</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2811112090751109</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2320508277463778</v>
+        <v>0.2341659545320036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3298131501499969</v>
+        <v>0.3336061327765303</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>78</v>
@@ -5624,19 +5624,19 @@
         <v>78959</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>64958</v>
+        <v>65785</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>94663</v>
+        <v>94747</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2929564854315306</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2410115556752949</v>
+        <v>0.2440799598390998</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3512216974556194</v>
+        <v>0.3515350454213256</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>169</v>
@@ -5645,19 +5645,19 @@
         <v>180624</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>157378</v>
+        <v>155483</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>204912</v>
+        <v>203782</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2861693491364706</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2493402991061344</v>
+        <v>0.2463384342525983</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3246508327056479</v>
+        <v>0.322859505124641</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>96370</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79905</v>
+        <v>79694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115209</v>
+        <v>116580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2664713607038544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2209437613104568</v>
+        <v>0.2203589776747021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3185601676177217</v>
+        <v>0.3223518010142223</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -5695,19 +5695,19 @@
         <v>72032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59178</v>
+        <v>58254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88339</v>
+        <v>86518</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2672566321063644</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2195635918355937</v>
+        <v>0.2161382862539221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3277591361435256</v>
+        <v>0.3210020613862915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -5716,19 +5716,19 @@
         <v>168403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146282</v>
+        <v>145187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>191302</v>
+        <v>190857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2668066853193855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2317595201800377</v>
+        <v>0.2300258438711555</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.303086470766512</v>
+        <v>0.302382569181126</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>95596</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78723</v>
+        <v>79242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116328</v>
+        <v>114396</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2643308713030117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2176749294039909</v>
+        <v>0.2191092291641894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3216551839376669</v>
+        <v>0.3163131315419167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -5766,19 +5766,19 @@
         <v>54799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42529</v>
+        <v>41689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67844</v>
+        <v>69074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2033169944889772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.157793061629503</v>
+        <v>0.1546766476145334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2517187689217633</v>
+        <v>0.2562810569396196</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -5787,19 +5787,19 @@
         <v>150395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>128338</v>
+        <v>130731</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171926</v>
+        <v>175049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2382768793719014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2033312989079847</v>
+        <v>0.2071222377257938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2723883562083267</v>
+        <v>0.277337687806599</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>142919</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>123083</v>
+        <v>123555</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161917</v>
+        <v>162567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3608113733161152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3107341546654244</v>
+        <v>0.3119237293506147</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4087735645730224</v>
+        <v>0.4104151379023388</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -5912,19 +5912,19 @@
         <v>127077</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108992</v>
+        <v>110040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>144053</v>
+        <v>145907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3928542944249483</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3369430785342579</v>
+        <v>0.3401845186205498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4453322977722527</v>
+        <v>0.4510656269164583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>258</v>
@@ -5933,19 +5933,19 @@
         <v>269997</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>246060</v>
+        <v>244393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297832</v>
+        <v>297527</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3752156412337649</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3419508406025126</v>
+        <v>0.3396346631536125</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4138988975395924</v>
+        <v>0.4134749036403761</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>81638</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66308</v>
+        <v>67645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97711</v>
+        <v>99587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2061019962667028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1673990976551094</v>
+        <v>0.1707743291178129</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2466802213232612</v>
+        <v>0.251414863968574</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -5983,19 +5983,19 @@
         <v>68288</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54715</v>
+        <v>55520</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85147</v>
+        <v>84351</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2111099384369195</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1691500439995937</v>
+        <v>0.1716387750565748</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2632298235911229</v>
+        <v>0.2607682033306308</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>144</v>
@@ -6004,19 +6004,19 @@
         <v>149926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>129669</v>
+        <v>129258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>175562</v>
+        <v>171288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2083532186346913</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1802022426017466</v>
+        <v>0.179630398807561</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2439796715171257</v>
+        <v>0.2380395584321389</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>107796</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>92857</v>
+        <v>89147</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>127641</v>
+        <v>126765</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2721410348803164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2344241703617987</v>
+        <v>0.2250598767166278</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3222399183280042</v>
+        <v>0.3200296902346708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>59</v>
@@ -6054,19 +6054,19 @@
         <v>58926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44904</v>
+        <v>47212</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72544</v>
+        <v>74188</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.18216769950574</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1388175557854755</v>
+        <v>0.1459537625920627</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2242659334164535</v>
+        <v>0.2293479899147607</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>166</v>
@@ -6075,19 +6075,19 @@
         <v>166723</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>146681</v>
+        <v>144372</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191632</v>
+        <v>193286</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2316952832655335</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2038426978135298</v>
+        <v>0.200634508528714</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2663127020895539</v>
+        <v>0.268610649558144</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>63751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50680</v>
+        <v>49069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80153</v>
+        <v>79301</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1609455955368656</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1279451299945428</v>
+        <v>0.1238799342987513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2023517480485281</v>
+        <v>0.2002009335032752</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -6125,19 +6125,19 @@
         <v>69180</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54057</v>
+        <v>53257</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85333</v>
+        <v>83820</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2138680676323921</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1671146510757517</v>
+        <v>0.1646431263719388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2638018305801346</v>
+        <v>0.2591251382150567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -6146,19 +6146,19 @@
         <v>132932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113368</v>
+        <v>112179</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155452</v>
+        <v>155258</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1847358568660102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1575487975569738</v>
+        <v>0.155895581827363</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2160319347926501</v>
+        <v>0.2157630352196551</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>408195</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>372621</v>
+        <v>374668</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>444644</v>
+        <v>442875</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2902251139270288</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2649324885118596</v>
+        <v>0.2663876444854463</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3161404746693172</v>
+        <v>0.3148830180255334</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>330</v>
@@ -6271,19 +6271,19 @@
         <v>336799</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>308693</v>
+        <v>308008</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>367865</v>
+        <v>368197</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.327307581456728</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2999942241401788</v>
+        <v>0.2993276791951001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.357497823279049</v>
+        <v>0.3578208354223314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>709</v>
@@ -6292,19 +6292,19 @@
         <v>744993</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>702121</v>
+        <v>698161</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>791899</v>
+        <v>794388</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3058926089739201</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2882894525233535</v>
+        <v>0.2866633718457296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3251519995453407</v>
+        <v>0.3261739903479636</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>347511</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>318679</v>
+        <v>315728</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>383158</v>
+        <v>379553</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2470793270514087</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2265800547982856</v>
+        <v>0.2244815257651569</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2724239893269121</v>
+        <v>0.2698609293898344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -6342,19 +6342,19 @@
         <v>259683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231215</v>
+        <v>234033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287848</v>
+        <v>291398</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2523652826504991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2246992430137036</v>
+        <v>0.2274377127735916</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2797362738947321</v>
+        <v>0.2831860697956315</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>580</v>
@@ -6363,19 +6363,19 @@
         <v>607195</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>566691</v>
+        <v>563729</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>650117</v>
+        <v>654248</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2493126650325047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2326818832139389</v>
+        <v>0.2314657271841937</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2669366407829091</v>
+        <v>0.268632918839899</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>381662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>347044</v>
+        <v>348857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>418665</v>
+        <v>417952</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2713603639430281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2467470361236264</v>
+        <v>0.2480361134602904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2976696633163836</v>
+        <v>0.2971626966193489</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -6413,19 +6413,19 @@
         <v>227517</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>201033</v>
+        <v>199886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>255927</v>
+        <v>252880</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2211053189153635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1953673433410513</v>
+        <v>0.1942529696735029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2487149967564384</v>
+        <v>0.2457533538743318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>586</v>
@@ -6434,19 +6434,19 @@
         <v>609179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>566224</v>
+        <v>567226</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>651826</v>
+        <v>657112</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2501274007260676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.232490194904198</v>
+        <v>0.2329015228973913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2676381495393615</v>
+        <v>0.2698085960286047</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>269108</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>237960</v>
+        <v>242123</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>303553</v>
+        <v>301110</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1913351950785344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.169188598651668</v>
+        <v>0.1721488010813191</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2158251094926519</v>
+        <v>0.2140881443998357</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>193</v>
@@ -6484,19 +6484,19 @@
         <v>204999</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>181448</v>
+        <v>178353</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>233495</v>
+        <v>230388</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1992218169774094</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.176334648229022</v>
+        <v>0.1733267014240606</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2269150917880935</v>
+        <v>0.2238951230217499</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>438</v>
@@ -6505,19 +6505,19 @@
         <v>474107</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>435648</v>
+        <v>432515</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>513987</v>
+        <v>515940</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1946673252675075</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1788762360271926</v>
+        <v>0.1775895251264615</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2110417275220478</v>
+        <v>0.2118439455254782</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>41569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28469</v>
+        <v>27982</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59996</v>
+        <v>58937</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2153696093637744</v>
+        <v>0.2153696093637743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1474989295265166</v>
+        <v>0.1449724186958725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3108374254947697</v>
+        <v>0.30535226795646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6870,19 +6870,19 @@
         <v>23202</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15487</v>
+        <v>15546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34360</v>
+        <v>33285</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1698497613147205</v>
+        <v>0.1698497613147204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1133689660474159</v>
+        <v>0.1138048063899568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2515236856088433</v>
+        <v>0.2436575280214543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -6891,19 +6891,19 @@
         <v>64772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50765</v>
+        <v>49705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84814</v>
+        <v>84699</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1965045908533746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.154009768186992</v>
+        <v>0.1507938620324718</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.25730787631242</v>
+        <v>0.2569611869753776</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>50334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38235</v>
+        <v>38974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64357</v>
+        <v>65148</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2607811523798623</v>
+        <v>0.2607811523798624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.19809500479762</v>
+        <v>0.2019236837551985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3334314215372076</v>
+        <v>0.3375306697623828</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -6941,19 +6941,19 @@
         <v>42955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34396</v>
+        <v>32874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52101</v>
+        <v>52404</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3144431659357337</v>
+        <v>0.3144431659357336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2517883021823183</v>
+        <v>0.2406511993834881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3813927472826242</v>
+        <v>0.3836142495534898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -6962,19 +6962,19 @@
         <v>93289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77442</v>
+        <v>78553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109634</v>
+        <v>110998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2830205693029134</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.234943529125936</v>
+        <v>0.2383158508945341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3326096617994049</v>
+        <v>0.3367459512842709</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>61356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45709</v>
+        <v>48888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75988</v>
+        <v>78404</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3178827971512129</v>
+        <v>0.317882797151213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2368190923874417</v>
+        <v>0.2532875891874295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3936897530935081</v>
+        <v>0.4062076245871482</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -7012,19 +7012,19 @@
         <v>40086</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31455</v>
+        <v>31576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51361</v>
+        <v>49147</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2934446116729338</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2302621230409651</v>
+        <v>0.2311457773337636</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3759787122775168</v>
+        <v>0.3597713993764576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>117</v>
@@ -7033,19 +7033,19 @@
         <v>101442</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83933</v>
+        <v>86301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>118441</v>
+        <v>119654</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3077547575999495</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2546356634952953</v>
+        <v>0.2618219019100275</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.35932808924058</v>
+        <v>0.363008027409996</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>39754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27257</v>
+        <v>27485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55320</v>
+        <v>56067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2059664411051503</v>
+        <v>0.2059664411051504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1412163484491639</v>
+        <v>0.1424006938983943</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2866103880848928</v>
+        <v>0.2904816233951697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -7083,19 +7083,19 @@
         <v>30362</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21217</v>
+        <v>22431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41089</v>
+        <v>40613</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.222262461076612</v>
+        <v>0.2222624610766119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.155318201860217</v>
+        <v>0.1642042057987138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3007845003827299</v>
+        <v>0.2973015667361861</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -7104,19 +7104,19 @@
         <v>70117</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55373</v>
+        <v>55431</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89496</v>
+        <v>89129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2127200822437626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1679919178132112</v>
+        <v>0.1681669458460832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2715130179396378</v>
+        <v>0.2704007465630823</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>82113</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65159</v>
+        <v>65830</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>100491</v>
+        <v>100803</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2484964431556434</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.197189727856627</v>
+        <v>0.1992189441941525</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3041145080475147</v>
+        <v>0.305058694470827</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>63</v>
@@ -7229,19 +7229,19 @@
         <v>50449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39944</v>
+        <v>39215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61271</v>
+        <v>61303</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2321759236210432</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1838296553402416</v>
+        <v>0.1804745352533601</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.281982420336442</v>
+        <v>0.2821275265459849</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>130</v>
@@ -7250,19 +7250,19 @@
         <v>132561</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>113206</v>
+        <v>113068</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>155048</v>
+        <v>154462</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2420219622394797</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2066839012654134</v>
+        <v>0.2064315642581686</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2830762328960376</v>
+        <v>0.2820078702936689</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>82224</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65440</v>
+        <v>66541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100058</v>
+        <v>100613</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.248833940867453</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1980406028775593</v>
+        <v>0.2013709120451217</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3028047095133294</v>
+        <v>0.3044823649506314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -7300,19 +7300,19 @@
         <v>71245</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60009</v>
+        <v>59675</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83156</v>
+        <v>84006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3278845695488045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2761731218387769</v>
+        <v>0.2746381881407595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3827020472360009</v>
+        <v>0.3866129831927098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -7321,19 +7321,19 @@
         <v>153469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133458</v>
+        <v>134278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174604</v>
+        <v>174712</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2801939588940295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2436586564429733</v>
+        <v>0.2451567043614448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3187806039788279</v>
+        <v>0.3189786487363463</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>122237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102851</v>
+        <v>101332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142125</v>
+        <v>141950</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3699248042695793</v>
+        <v>0.3699248042695792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3112575546453784</v>
+        <v>0.306658546309969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4301095656518897</v>
+        <v>0.4295805338102546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -7371,19 +7371,19 @@
         <v>58946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48078</v>
+        <v>47696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70905</v>
+        <v>71067</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2712835013180556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2212634516101458</v>
+        <v>0.2195076864799115</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3263188538742722</v>
+        <v>0.327067027746001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>186</v>
@@ -7392,19 +7392,19 @@
         <v>181183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161372</v>
+        <v>159451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203117</v>
+        <v>204219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3307930087313798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2946225185711867</v>
+        <v>0.2911155831152527</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3708382292728497</v>
+        <v>0.3728499078083887</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>43864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30826</v>
+        <v>29685</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61357</v>
+        <v>60515</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1327448117073244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09328962871214412</v>
+        <v>0.08983647179290104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1856833916769419</v>
+        <v>0.1831353483858533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -7442,19 +7442,19 @@
         <v>36647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27472</v>
+        <v>26992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48296</v>
+        <v>48529</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1686560055120967</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1264341040259107</v>
+        <v>0.1242217140024426</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2222703347211365</v>
+        <v>0.2233411059991348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -7463,19 +7463,19 @@
         <v>80511</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63577</v>
+        <v>63773</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101086</v>
+        <v>101690</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1469910701351111</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1160756512440474</v>
+        <v>0.1164318212298205</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1845571100142022</v>
+        <v>0.1856595353247467</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>54393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41282</v>
+        <v>42559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70912</v>
+        <v>70884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.272536793881765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2068455037199715</v>
+        <v>0.2132399297819942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3553036653065746</v>
+        <v>0.35516157662081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -7588,19 +7588,19 @@
         <v>56509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45640</v>
+        <v>45107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67949</v>
+        <v>67501</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3703476134094623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2991190823011505</v>
+        <v>0.2956216819995947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.445322178368582</v>
+        <v>0.4423907988626232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -7609,19 +7609,19 @@
         <v>110902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92938</v>
+        <v>94707</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129302</v>
+        <v>129723</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3149154715829475</v>
+        <v>0.3149154715829474</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2639063539729302</v>
+        <v>0.2689294797283841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3671654203913648</v>
+        <v>0.3683596029741293</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>62989</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48524</v>
+        <v>47793</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79549</v>
+        <v>79819</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.31560725631706</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2431293181882408</v>
+        <v>0.2394669683602325</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3985788383284019</v>
+        <v>0.3999321816487891</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>57</v>
@@ -7659,19 +7659,19 @@
         <v>44608</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>34555</v>
+        <v>35661</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55782</v>
+        <v>55380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2923494717140047</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.226469394049887</v>
+        <v>0.2337134246719494</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3655875100476169</v>
+        <v>0.362951317037302</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>106</v>
@@ -7680,19 +7680,19 @@
         <v>107597</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>88655</v>
+        <v>89704</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>127259</v>
+        <v>125979</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3055303122479298</v>
+        <v>0.3055303122479297</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2517441087689122</v>
+        <v>0.2547227205014167</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3613624243809559</v>
+        <v>0.3577292075564028</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>42118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31066</v>
+        <v>29584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58264</v>
+        <v>57166</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2110318217578772</v>
+        <v>0.2110318217578771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556574323273872</v>
+        <v>0.1482306979508368</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2919330588274425</v>
+        <v>0.2864282626467227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -7730,19 +7730,19 @@
         <v>25705</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17775</v>
+        <v>17914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35414</v>
+        <v>34627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1684676924462395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1164970168031829</v>
+        <v>0.117402043027767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2320966731214401</v>
+        <v>0.2269362114794903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -7751,19 +7751,19 @@
         <v>67823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53181</v>
+        <v>52703</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85077</v>
+        <v>84106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1925899814130209</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1510116934128634</v>
+        <v>0.1496553898706138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2415834674927579</v>
+        <v>0.2388253018323535</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>40081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26780</v>
+        <v>27724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58666</v>
+        <v>56837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2008241280432977</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1341816877844734</v>
+        <v>0.1389092787706956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2939437798146406</v>
+        <v>0.2847814560675043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -7801,19 +7801,19 @@
         <v>25761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17851</v>
+        <v>18045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35642</v>
+        <v>35654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1688352224302934</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1169945506170505</v>
+        <v>0.1182634574394054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2335894361606355</v>
+        <v>0.2336707031970654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -7822,19 +7822,19 @@
         <v>65842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>50698</v>
+        <v>50629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86938</v>
+        <v>85859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1869642347561019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1439626751045954</v>
+        <v>0.1437657318658443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2468681222448893</v>
+        <v>0.2438029154808049</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>95072</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77866</v>
+        <v>81069</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111335</v>
+        <v>112874</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3883389915816248</v>
+        <v>0.3883389915816247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3180567432362384</v>
+        <v>0.331139357864348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4547693432189772</v>
+        <v>0.4610548532529458</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -7947,19 +7947,19 @@
         <v>77448</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65398</v>
+        <v>64393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91495</v>
+        <v>88920</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3780747191360669</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3192513107266805</v>
+        <v>0.3143464289938695</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4466498556052926</v>
+        <v>0.4340790226995453</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -7968,19 +7968,19 @@
         <v>172520</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151168</v>
+        <v>153195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190242</v>
+        <v>196290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.383663032150697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3361781163374526</v>
+        <v>0.340687221149277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.423075286285838</v>
+        <v>0.4365240326708051</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>55055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42184</v>
+        <v>41627</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70214</v>
+        <v>69761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2248834512336451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1723062940258941</v>
+        <v>0.1700332527960709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.286802751884663</v>
+        <v>0.2849532882479901</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -8018,19 +8018,19 @@
         <v>52520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41284</v>
+        <v>42113</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64196</v>
+        <v>64967</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2563852661447092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2015345223637199</v>
+        <v>0.2055794801930956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3133856062949396</v>
+        <v>0.3171481179169508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -8039,19 +8039,19 @@
         <v>107575</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89290</v>
+        <v>89675</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>125912</v>
+        <v>126562</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2392343182148192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1985709011348689</v>
+        <v>0.1994251836829736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2800134546867546</v>
+        <v>0.281458445804277</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>62155</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49165</v>
+        <v>48720</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75856</v>
+        <v>76798</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2538845633979291</v>
+        <v>0.253884563397929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2008217992914997</v>
+        <v>0.1990051624432395</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3098470130089802</v>
+        <v>0.3136955946314819</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -8089,19 +8089,19 @@
         <v>47750</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37507</v>
+        <v>36291</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59937</v>
+        <v>58298</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2331008955876215</v>
+        <v>0.2331008955876216</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1830958640920199</v>
+        <v>0.1771616423865133</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2925904922079198</v>
+        <v>0.2845914725045143</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -8110,19 +8110,19 @@
         <v>109906</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>93488</v>
+        <v>92921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129375</v>
+        <v>130459</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2444164215474138</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2079058628095054</v>
+        <v>0.2066454363676923</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2877152064593042</v>
+        <v>0.2901239423146668</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>32534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22899</v>
+        <v>22437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46997</v>
+        <v>45377</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1328929937868011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09353325141055981</v>
+        <v>0.09164870003594001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1919688408535587</v>
+        <v>0.1853498450326493</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -8160,19 +8160,19 @@
         <v>27130</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19432</v>
+        <v>19659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38011</v>
+        <v>36970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1324391191316022</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09485840417980113</v>
+        <v>0.09596774365045821</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1855547672488383</v>
+        <v>0.1804730203889404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -8181,19 +8181,19 @@
         <v>59664</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45843</v>
+        <v>47172</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75055</v>
+        <v>75417</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.13268622808707</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1019498878730996</v>
+        <v>0.1049044447216242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1669133206595951</v>
+        <v>0.1677192183051526</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>273147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>243207</v>
+        <v>241229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>307660</v>
+        <v>303390</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2822206326752359</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2512855186970381</v>
+        <v>0.2492425250434919</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3178797474157617</v>
+        <v>0.3134681649877723</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>262</v>
@@ -8306,19 +8306,19 @@
         <v>207608</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>187458</v>
+        <v>185485</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>230511</v>
+        <v>230709</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2918612785324515</v>
+        <v>0.2918612785324514</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2635339576173394</v>
+        <v>0.2607610248251095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3240593246928456</v>
+        <v>0.3243379371152393</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>486</v>
@@ -8327,19 +8327,19 @@
         <v>480755</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>440195</v>
+        <v>444701</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>517954</v>
+        <v>522406</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2863045573047168</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2621499489701717</v>
+        <v>0.2648334387200088</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3084579207283835</v>
+        <v>0.3111092318589951</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>250603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>222931</v>
+        <v>224362</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284620</v>
+        <v>285384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.258927621380961</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2303367048634198</v>
+        <v>0.2318143457941676</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2940742487375755</v>
+        <v>0.2948636520968899</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>303</v>
@@ -8377,19 +8377,19 @@
         <v>211327</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>189824</v>
+        <v>188318</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>234471</v>
+        <v>232346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2970902529942834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2668598411706016</v>
+        <v>0.2647428420170861</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3296268946130682</v>
+        <v>0.326639645269151</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>531</v>
@@ -8398,19 +8398,19 @@
         <v>461930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>426356</v>
+        <v>429454</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>499586</v>
+        <v>501992</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2750938942095394</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2539081977384074</v>
+        <v>0.2557532412398997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.297518879356303</v>
+        <v>0.2989516876355978</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>287866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>256608</v>
+        <v>254130</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>319060</v>
+        <v>316450</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2974285293133093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2651321490852073</v>
+        <v>0.2625721361369547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3296586744606965</v>
+        <v>0.3269622314619328</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>236</v>
@@ -8448,19 +8448,19 @@
         <v>172488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152844</v>
+        <v>151060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>194375</v>
+        <v>192984</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2424889941771688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2148722068984314</v>
+        <v>0.212364467923391</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2732582276671274</v>
+        <v>0.2713025379902851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>490</v>
@@ -8469,19 +8469,19 @@
         <v>460354</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>422473</v>
+        <v>423826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>497512</v>
+        <v>496882</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2741553042620247</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2515960791285509</v>
+        <v>0.2524014941803887</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2962839064358083</v>
+        <v>0.2959087809655132</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>156233</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>129132</v>
+        <v>130623</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>185008</v>
+        <v>189702</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1614232166304938</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1334214218525878</v>
+        <v>0.1349622629027914</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1911538254950868</v>
+        <v>0.1960037910048289</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>143</v>
@@ -8519,19 +8519,19 @@
         <v>119900</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>102491</v>
+        <v>99941</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>141503</v>
+        <v>137937</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1685594742960965</v>
+        <v>0.1685594742960964</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1440855527452742</v>
+        <v>0.1405000772995003</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1989295346327516</v>
+        <v>0.1939157840973183</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>256</v>
@@ -8540,19 +8540,19 @@
         <v>276134</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244886</v>
+        <v>242661</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>312807</v>
+        <v>311063</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1644462442237191</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1458370760877066</v>
+        <v>0.1445122733038746</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1862864245142747</v>
+        <v>0.185247812064094</v>
       </c>
     </row>
     <row r="28">
